--- a/section1.xlsx
+++ b/section1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="V23" sheetId="1" r:id="rId1"/>
@@ -342,8 +342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/section1.xlsx
+++ b/section1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="V23" sheetId="1" r:id="rId1"/>
-    <sheet name="schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="scheduleee" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,22 +20,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>student number</t>
+  </si>
+  <si>
+    <t>start time</t>
+  </si>
+  <si>
+    <t>end time</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,8 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -356,6 +376,101 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>201511281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>201511438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>201411491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>201410679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>201411851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>201410215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>201420096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>201512590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>201411823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>201410617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>201410881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>201512068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>201512491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>201510652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>201511230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>201511911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>201510573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>201512532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>201510186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -363,14 +478,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/section1.xlsx
+++ b/section1.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="V23" sheetId="1" r:id="rId1"/>
-    <sheet name="scheduleee" sheetId="3" r:id="rId2"/>
+    <sheet name="K33" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>student number</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>t1211</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,99 +383,68 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>201511281</v>
+      <c r="A2" s="1">
+        <v>201511230</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>201511438</v>
+      <c r="A3" s="1">
+        <v>201511911</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>201411491</v>
+      <c r="A4" s="1">
+        <v>201510573</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>201410679</v>
+      <c r="A5" s="1">
+        <v>201512532</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>201411851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>201410215</v>
+        <v>201510186</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>201420096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>201512590</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>201411823</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>201410617</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>201410881</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>201512068</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>201512491</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>201510652</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>201511230</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>201511911</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>201510573</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>201512532</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>201510186</v>
-      </c>
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -478,10 +453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +465,7 @@
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -500,8 +475,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -509,7 +487,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C2" s="2">
-        <v>0.875</v>
+        <v>0.375</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/section1.xlsx
+++ b/section1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="K33" sheetId="1" r:id="rId1"/>
+    <sheet name="V32" sheetId="1" r:id="rId1"/>
     <sheet name="schedule" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
